--- a/results/I3_N5_M3_T30_C150_DepLowerLeft_s1_P1_res.xlsx
+++ b/results/I3_N5_M3_T30_C150_DepLowerLeft_s1_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>625.8148294795217</v>
+        <v>1340.95579302708</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006999969482421875</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.72482947953772</v>
+        <v>25.81760345874363</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.196558216847439</v>
+        <v>11.8446015159008</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.196558216847439</v>
+        <v>10.98279108423719</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>326.899999999984</v>
+        <v>768</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>256.19</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,9 +587,53 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -634,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -711,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -802,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -824,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -835,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -885,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>25.31430901573738</v>
       </c>
     </row>
     <row r="4">
@@ -893,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17.41539744121283</v>
+        <v>16.55358700954922</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.01720891576282</v>
+        <v>18.1553984840992</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9.280116253693862</v>
+        <v>2.71773803005367</v>
       </c>
     </row>
     <row r="7">
@@ -917,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>5.206834251576655</v>
       </c>
     </row>
     <row r="8">
@@ -933,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.68569098426262</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24.95791286732633</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -987,15 +1031,141 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1098,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>126.9700000000003</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8">
@@ -1109,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>127.65</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9">
@@ -1120,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>136.8550000000003</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10">
@@ -1131,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>127.2550000000003</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11">
@@ -1142,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>123.4800000000003</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12">
@@ -1153,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>107.5750000000002</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
@@ -1164,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>98.90000000000001</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -1175,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>102.7750000000002</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
@@ -1186,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>109.9900000000002</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
@@ -1197,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>108.0950000000002</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17">
@@ -1208,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>188.6299999999988</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
@@ -1219,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19">
@@ -1230,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>170.774999999998</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
@@ -1241,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>186.2299999999988</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
@@ -1252,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>185.8149999999981</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22">
@@ -1263,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>63.13500000000051</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1274,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>60.36500000000051</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -1285,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>61.40500000000051</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
@@ -1296,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>64.17500000000051</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -1307,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>62.26000000000051</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -1318,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>101.7250000000004</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
@@ -1329,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>96.12000000000037</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -1340,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>98.26500000000037</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
@@ -1351,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>96.94500000000036</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
@@ -1362,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>103.5650000000004</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
@@ -1373,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>188.6299999999985</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33">
@@ -1384,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>182</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34">
@@ -1395,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>170.7749999999974</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35">
@@ -1406,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>186.2299999999986</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36">
@@ -1417,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>185.8149999999975</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37">
@@ -1428,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>126.9700000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1439,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>127.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1450,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>136.8550000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1461,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>127.2550000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1472,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>123.4800000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1483,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>101.7250000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1494,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>96.12000000000037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1505,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>98.26500000000037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1516,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>96.94500000000036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1527,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>103.5650000000004</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>38.62999999999855</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -1585,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -1596,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>20.77499999999739</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -1607,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>36.22999999999857</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -1618,7 +1788,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>35.8149999999975</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -1830,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1841,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1852,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1863,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1874,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1885,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1896,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1907,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1918,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1929,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1940,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>12.755</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -1951,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>15.325</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -1962,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>18.795</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1973,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>16.08</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -1984,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.305</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1995,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -2006,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -2017,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -2028,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -2039,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2053,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2080,7 +2250,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2091,7 +2261,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2102,7 +2272,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2113,7 +2283,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2124,12 +2294,67 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
